--- a/output/ship_rule_integrate_initial.xlsx
+++ b/output/ship_rule_integrate_initial.xlsx
@@ -386,10 +386,10 @@
         <v>120</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>1500</v>
@@ -398,7 +398,7 @@
         <v>50</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
@@ -408,19 +408,19 @@
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>600</v>
-      </c>
       <c r="F2" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -433,22 +433,22 @@
     </row>
     <row r="3">
       <c r="B3" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
@@ -471,22 +471,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>110</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>95</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
     </row>
     <row r="6">
       <c r="B6" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -521,22 +521,22 @@
     </row>
     <row r="7">
       <c r="B7" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -559,47 +559,47 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>change speed to 13</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
@@ -609,22 +609,22 @@
     </row>
     <row r="11">
       <c r="B11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>150</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>100</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="12">
       <c r="B12" s="0" t="n">
-        <v>-0.1434808416504212</v>
+        <v>-0.02313809807708257</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.2445653099615741</v>
+        <v>0.3283840522967633</v>
       </c>
     </row>
     <row r="13">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
@@ -672,19 +672,19 @@
     </row>
     <row r="14">
       <c r="B14" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>70</v>
@@ -697,22 +697,22 @@
     </row>
     <row r="15">
       <c r="B15" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>80</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>95</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
@@ -760,22 +760,22 @@
     </row>
     <row r="18">
       <c r="B18" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F18" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>60</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
@@ -785,22 +785,22 @@
     </row>
     <row r="19">
       <c r="B19" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
@@ -823,72 +823,72 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F21" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 30 ships</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
@@ -898,10 +898,10 @@
     </row>
     <row r="24">
       <c r="B24" s="0" t="n">
-        <v>-0.03181487452465148</v>
+        <v>-0.02313809807708257</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.32948304766923</v>
+        <v>0.3283840522967633</v>
       </c>
     </row>
     <row r="25">
@@ -911,22 +911,22 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
@@ -936,22 +936,22 @@
     </row>
     <row r="26">
       <c r="B26" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>160</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
@@ -961,22 +961,22 @@
     </row>
     <row r="27">
       <c r="B27" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
@@ -999,22 +999,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
@@ -1024,22 +1024,22 @@
     </row>
     <row r="30">
       <c r="B30" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="31">
       <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>20</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
@@ -1112,22 +1112,22 @@
     </row>
     <row r="34">
       <c r="B34" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
@@ -1137,22 +1137,22 @@
     </row>
     <row r="35">
       <c r="B35" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>100</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
@@ -1200,22 +1200,22 @@
     </row>
     <row r="38">
       <c r="B38" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D38" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>3000</v>
-      </c>
       <c r="F38" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
@@ -1225,22 +1225,22 @@
     </row>
     <row r="39">
       <c r="B39" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>105</v>
-      </c>
       <c r="G39" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
@@ -1263,22 +1263,22 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D41" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="F41" s="0" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
@@ -1288,22 +1288,22 @@
     </row>
     <row r="42">
       <c r="B42" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
@@ -1313,22 +1313,22 @@
     </row>
     <row r="43">
       <c r="B43" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
@@ -1351,22 +1351,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
@@ -1376,22 +1376,22 @@
     </row>
     <row r="46">
       <c r="B46" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
@@ -1401,26 +1401,26 @@
     </row>
     <row r="47">
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
     </row>
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
@@ -1464,22 +1464,22 @@
     </row>
     <row r="50">
       <c r="B50" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
@@ -1489,22 +1489,22 @@
     </row>
     <row r="51">
       <c r="B51" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
@@ -1527,72 +1527,72 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>60</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 19</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F54" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="G54" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>sell 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
@@ -1615,22 +1615,22 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
@@ -1640,47 +1640,47 @@
     </row>
     <row r="58">
       <c r="B58" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C59" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D59" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>80</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
@@ -1703,47 +1703,47 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
@@ -1753,22 +1753,22 @@
     </row>
     <row r="63">
       <c r="B63" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="64">
       <c r="B64" s="0" t="n">
-        <v>-0.05021453255885013</v>
+        <v>-0.02313809807708257</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.281485674990569</v>
+        <v>0.3283840522967633</v>
       </c>
     </row>
     <row r="65">
@@ -1791,22 +1791,22 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H65" s="0" t="inlineStr">
         <is>
@@ -1816,22 +1816,22 @@
     </row>
     <row r="66">
       <c r="B66" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
@@ -1841,22 +1841,22 @@
     </row>
     <row r="67">
       <c r="B67" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H67" s="0" t="inlineStr">
         <is>
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
@@ -1904,22 +1904,22 @@
     </row>
     <row r="70">
       <c r="B70" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
@@ -1929,22 +1929,22 @@
     </row>
     <row r="71">
       <c r="B71" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>160</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H73" s="0" t="inlineStr">
         <is>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="74">
       <c r="B74" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
@@ -2017,22 +2017,22 @@
     </row>
     <row r="75">
       <c r="B75" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
@@ -2055,22 +2055,22 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="H77" s="0" t="inlineStr">
         <is>
@@ -2080,22 +2080,22 @@
     </row>
     <row r="78">
       <c r="B78" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D78" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E78" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="E78" s="0" t="n">
-        <v>1800</v>
-      </c>
       <c r="F78" s="0" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H78" s="0" t="inlineStr">
         <is>
@@ -2105,22 +2105,22 @@
     </row>
     <row r="79">
       <c r="B79" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C79" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F79" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E79" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="G79" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H79" s="0" t="inlineStr">
         <is>
@@ -2143,19 +2143,19 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>130</v>
@@ -2168,47 +2168,47 @@
     </row>
     <row r="82">
       <c r="B82" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="F82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G82" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="H82" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>900</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
@@ -2256,47 +2256,47 @@
     </row>
     <row r="86">
       <c r="B86" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="H86" s="0" t="inlineStr">
         <is>
-          <t>sell 90 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
@@ -2319,22 +2319,22 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H89" s="0" t="inlineStr">
         <is>
@@ -2344,22 +2344,22 @@
     </row>
     <row r="90">
       <c r="B90" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H90" s="0" t="inlineStr">
         <is>
@@ -2369,22 +2369,22 @@
     </row>
     <row r="91">
       <c r="B91" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
@@ -2407,22 +2407,22 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="H93" s="0" t="inlineStr">
         <is>
@@ -2432,47 +2432,47 @@
     </row>
     <row r="94">
       <c r="B94" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
-          <t>sell 60 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H95" s="0" t="inlineStr">
         <is>
@@ -2495,22 +2495,22 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H97" s="0" t="inlineStr">
         <is>
@@ -2520,22 +2520,22 @@
     </row>
     <row r="98">
       <c r="B98" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F98" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="D98" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E98" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="G98" s="0" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="H98" s="0" t="inlineStr">
         <is>
@@ -2545,22 +2545,22 @@
     </row>
     <row r="99">
       <c r="B99" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H99" s="0" t="inlineStr">
         <is>
@@ -2583,22 +2583,22 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="H101" s="0" t="inlineStr">
         <is>
@@ -2608,22 +2608,22 @@
     </row>
     <row r="102">
       <c r="B102" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>900</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H102" s="0" t="inlineStr">
         <is>
@@ -2633,19 +2633,19 @@
     </row>
     <row r="103">
       <c r="B103" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G103" s="0" t="n">
         <v>95</v>
@@ -2671,22 +2671,22 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H105" s="0" t="inlineStr">
         <is>
@@ -2696,22 +2696,22 @@
     </row>
     <row r="106">
       <c r="B106" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C106" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F106" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D106" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E106" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F106" s="0" t="n">
-        <v>95</v>
-      </c>
       <c r="G106" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H106" s="0" t="inlineStr">
         <is>
@@ -2721,22 +2721,22 @@
     </row>
     <row r="107">
       <c r="B107" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H107" s="0" t="inlineStr">
         <is>
@@ -2759,22 +2759,22 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H109" s="0" t="inlineStr">
         <is>
@@ -2784,19 +2784,19 @@
     </row>
     <row r="110">
       <c r="B110" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>95</v>
@@ -2809,22 +2809,22 @@
     </row>
     <row r="111">
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H111" s="0" t="inlineStr">
         <is>
@@ -2847,19 +2847,19 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C113" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D113" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>70</v>
@@ -2875,19 +2875,19 @@
         <v>150</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H114" s="0" t="inlineStr">
         <is>
@@ -2897,22 +2897,22 @@
     </row>
     <row r="115">
       <c r="B115" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H115" s="0" t="inlineStr">
         <is>
@@ -2935,47 +2935,47 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H117" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 17</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H118" s="0" t="inlineStr">
         <is>
@@ -2985,35 +2985,35 @@
     </row>
     <row r="119">
       <c r="B119" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H119" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.08532794202483898</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.2943634133496985</v>
       </c>
     </row>
     <row r="121">
@@ -3023,22 +3023,22 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H121" s="0" t="inlineStr">
         <is>
@@ -3048,22 +3048,22 @@
     </row>
     <row r="122">
       <c r="B122" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H122" s="0" t="inlineStr">
         <is>
@@ -3073,26 +3073,26 @@
     </row>
     <row r="123">
       <c r="B123" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="H123" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 40 ships</t>
+          <t>6month charter, 100 ships</t>
         </is>
       </c>
     </row>
@@ -3111,47 +3111,47 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="H125" s="0" t="inlineStr">
         <is>
-          <t>change speed to 21</t>
+          <t>change speed to 14</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F126" s="0" t="n">
         <v>70</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H126" s="0" t="inlineStr">
         <is>
@@ -3161,35 +3161,35 @@
     </row>
     <row r="127">
       <c r="B127" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H127" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter, 20 ships</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="0" t="n">
-        <v>-0.01853419119400753</v>
+        <v>-0.07887266033871057</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.3369567092186348</v>
+        <v>0.2964375600858459</v>
       </c>
     </row>
     <row r="129">
@@ -3199,22 +3199,22 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="H129" s="0" t="inlineStr">
         <is>
@@ -3224,22 +3224,22 @@
     </row>
     <row r="130">
       <c r="B130" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F130" s="0" t="n">
         <v>130</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H130" s="0" t="inlineStr">
         <is>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="131">
       <c r="B131" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C131" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F131" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D131" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E131" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F131" s="0" t="n">
+      <c r="G131" s="0" t="n">
         <v>130</v>
-      </c>
-      <c r="G131" s="0" t="n">
-        <v>160</v>
       </c>
       <c r="H131" s="0" t="inlineStr">
         <is>
@@ -3287,47 +3287,47 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F133" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G133" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="G133" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="H133" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 19</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="H134" s="0" t="inlineStr">
         <is>
@@ -3337,19 +3337,19 @@
     </row>
     <row r="135">
       <c r="B135" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F135" s="0" t="n">
         <v>80</v>
-      </c>
-      <c r="D135" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E135" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F135" s="0" t="n">
-        <v>60</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>70</v>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>140</v>
@@ -3384,38 +3384,38 @@
         <v>300</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="H137" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 26</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H138" s="0" t="inlineStr">
         <is>
@@ -3425,22 +3425,22 @@
     </row>
     <row r="139">
       <c r="B139" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="H139" s="0" t="inlineStr">
         <is>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="140">
       <c r="B140" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.08709631898669409</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.4059451434895897</v>
       </c>
     </row>
     <row r="141">
@@ -3463,22 +3463,22 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F141" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="H141" s="0" t="inlineStr">
         <is>
@@ -3488,22 +3488,22 @@
     </row>
     <row r="142">
       <c r="B142" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H142" s="0" t="inlineStr">
         <is>
@@ -3513,22 +3513,22 @@
     </row>
     <row r="143">
       <c r="B143" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C143" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F143" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D143" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E143" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F143" s="0" t="n">
-        <v>70</v>
-      </c>
       <c r="G143" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H143" s="0" t="inlineStr">
         <is>
@@ -3551,22 +3551,22 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F145" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G145" s="0" t="n">
         <v>90</v>
-      </c>
-      <c r="G145" s="0" t="n">
-        <v>160</v>
       </c>
       <c r="H145" s="0" t="inlineStr">
         <is>
@@ -3576,22 +3576,22 @@
     </row>
     <row r="146">
       <c r="B146" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H146" s="0" t="inlineStr">
         <is>
@@ -3601,22 +3601,22 @@
     </row>
     <row r="147">
       <c r="B147" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H147" s="0" t="inlineStr">
         <is>
@@ -3639,47 +3639,47 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H149" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 25</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H150" s="0" t="inlineStr">
         <is>
@@ -3689,35 +3689,35 @@
     </row>
     <row r="151">
       <c r="B151" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="H151" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 40 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="B152" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.08682469847180166</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.3630072501598532</v>
       </c>
     </row>
     <row r="153">
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H153" s="0" t="inlineStr">
         <is>
@@ -3752,19 +3752,19 @@
     </row>
     <row r="154">
       <c r="B154" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F154" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="C154" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E154" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" s="0" t="n">
-        <v>60</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>100</v>
@@ -3777,22 +3777,22 @@
     </row>
     <row r="155">
       <c r="B155" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H155" s="0" t="inlineStr">
         <is>
@@ -3815,16 +3815,16 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F157" s="0" t="n">
         <v>105</v>
@@ -3840,22 +3840,22 @@
     </row>
     <row r="158">
       <c r="B158" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H158" s="0" t="inlineStr">
         <is>
@@ -3865,22 +3865,22 @@
     </row>
     <row r="159">
       <c r="B159" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H159" s="0" t="inlineStr">
         <is>
@@ -3903,47 +3903,47 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H161" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 11</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H162" s="0" t="inlineStr">
         <is>
@@ -3953,22 +3953,22 @@
     </row>
     <row r="163">
       <c r="B163" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G163" s="0" t="n">
         <v>90</v>
-      </c>
-      <c r="C163" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D163" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E163" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F163" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G163" s="0" t="n">
-        <v>60</v>
       </c>
       <c r="H163" s="0" t="inlineStr">
         <is>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="164">
       <c r="B164" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.5917364957962499</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.3045446897326468</v>
       </c>
     </row>
     <row r="165">
@@ -3991,47 +3991,47 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H165" s="0" t="inlineStr">
         <is>
-          <t>change speed to 16</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H166" s="0" t="inlineStr">
         <is>
@@ -4041,22 +4041,22 @@
     </row>
     <row r="167">
       <c r="B167" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F167" s="0" t="n">
         <v>90</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H167" s="0" t="inlineStr">
         <is>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="168">
       <c r="B168" s="0" t="n">
-        <v>-0.04617872017444858</v>
+        <v>-0.02313809807708257</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>0.2866401401765356</v>
+        <v>0.3283840522967633</v>
       </c>
     </row>
     <row r="169">
@@ -4079,22 +4079,22 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H169" s="0" t="inlineStr">
         <is>
@@ -4104,47 +4104,47 @@
     </row>
     <row r="170">
       <c r="B170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G170" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="C170" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="D170" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E170" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F170" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G170" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="H170" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 20 ships</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C171" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="C171" s="0" t="n">
-        <v>110</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>1400</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H171" s="0" t="inlineStr">
         <is>
@@ -4167,19 +4167,19 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G173" s="0" t="n">
         <v>95</v>
@@ -4192,22 +4192,22 @@
     </row>
     <row r="174">
       <c r="B174" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H174" s="0" t="inlineStr">
         <is>
@@ -4217,22 +4217,22 @@
     </row>
     <row r="175">
       <c r="B175" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H175" s="0" t="inlineStr">
         <is>
@@ -4255,22 +4255,22 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H177" s="0" t="inlineStr">
         <is>
@@ -4280,22 +4280,22 @@
     </row>
     <row r="178">
       <c r="B178" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F178" s="0" t="n">
         <v>105</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H178" s="0" t="inlineStr">
         <is>
@@ -4305,22 +4305,22 @@
     </row>
     <row r="179">
       <c r="B179" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="H179" s="0" t="inlineStr">
         <is>
@@ -4343,47 +4343,47 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C181" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F181" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D181" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E181" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F181" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="G181" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H181" s="0" t="inlineStr">
         <is>
-          <t>change speed to 20</t>
+          <t>change speed to 16</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="B182" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="H182" s="0" t="inlineStr">
         <is>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="183">
       <c r="B183" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H183" s="0" t="inlineStr">
         <is>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="184">
       <c r="B184" s="0" t="n">
-        <v>-0.0231091008275222</v>
+        <v>-0.08519119870677873</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>0.3754251739166285</v>
+        <v>0.3183676602619434</v>
       </c>
     </row>
     <row r="185">
@@ -4434,19 +4434,19 @@
         <v>90</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H185" s="0" t="inlineStr">
         <is>
@@ -4456,47 +4456,47 @@
     </row>
     <row r="186">
       <c r="B186" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>70</v>
       </c>
       <c r="H186" s="0" t="inlineStr">
         <is>
-          <t>sell 60 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="B187" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H187" s="0" t="inlineStr">
         <is>
@@ -4519,72 +4519,72 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F189" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G189" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G189" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="H189" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 24</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="B190" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C190" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C190" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D190" s="0" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H190" s="0" t="inlineStr">
         <is>
-          <t>sell 25 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="B191" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H191" s="0" t="inlineStr">
         <is>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="192">
       <c r="B192" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.07769201310238247</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.3382134274554678</v>
       </c>
     </row>
     <row r="193">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H193" s="0" t="inlineStr">
         <is>
@@ -4632,22 +4632,22 @@
     </row>
     <row r="194">
       <c r="B194" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H194" s="0" t="inlineStr">
         <is>
@@ -4657,22 +4657,22 @@
     </row>
     <row r="195">
       <c r="B195" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H195" s="0" t="inlineStr">
         <is>
@@ -4695,22 +4695,22 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="H197" s="0" t="inlineStr">
         <is>
@@ -4720,19 +4720,19 @@
     </row>
     <row r="198">
       <c r="B198" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>600</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>130</v>
@@ -4745,22 +4745,22 @@
     </row>
     <row r="199">
       <c r="B199" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H199" s="0" t="inlineStr">
         <is>
@@ -4783,22 +4783,22 @@
         </is>
       </c>
       <c r="B201" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="G201" s="0" t="n">
         <v>130</v>
-      </c>
-      <c r="C201" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D201" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E201" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F201" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G201" s="0" t="n">
-        <v>200</v>
       </c>
       <c r="H201" s="0" t="inlineStr">
         <is>
@@ -4808,44 +4808,44 @@
     </row>
     <row r="202">
       <c r="B202" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H202" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="B203" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>105</v>
@@ -4871,22 +4871,22 @@
         </is>
       </c>
       <c r="B205" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="G205" s="0" t="n">
         <v>80</v>
-      </c>
-      <c r="C205" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D205" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E205" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F205" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="G205" s="0" t="n">
-        <v>70</v>
       </c>
       <c r="H205" s="0" t="inlineStr">
         <is>
@@ -4896,47 +4896,47 @@
     </row>
     <row r="206">
       <c r="B206" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H206" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 5 ships</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="B207" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H207" s="0" t="inlineStr">
         <is>
@@ -4959,47 +4959,47 @@
         </is>
       </c>
       <c r="B209" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H209" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 20</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="B210" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="H210" s="0" t="inlineStr">
         <is>
@@ -5009,35 +5009,35 @@
     </row>
     <row r="211">
       <c r="B211" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H211" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="B212" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.02744892083961981</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.3316119015723639</v>
       </c>
     </row>
     <row r="213">
@@ -5047,22 +5047,22 @@
         </is>
       </c>
       <c r="B213" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="H213" s="0" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="214">
       <c r="B214" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>50</v>
@@ -5084,10 +5084,10 @@
         <v>500</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H214" s="0" t="inlineStr">
         <is>
@@ -5100,23 +5100,23 @@
         <v>10</v>
       </c>
       <c r="C215" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F215" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="D215" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E215" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F215" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="G215" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="H215" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 40 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -5135,44 +5135,44 @@
         </is>
       </c>
       <c r="B217" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C217" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C217" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D217" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="H217" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 17</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="B218" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>150</v>
@@ -5185,22 +5185,22 @@
     </row>
     <row r="219">
       <c r="B219" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="H219" s="0" t="inlineStr">
         <is>
@@ -5210,10 +5210,10 @@
     </row>
     <row r="220">
       <c r="B220" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.009873638816257052</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.3132802750487865</v>
       </c>
     </row>
     <row r="221">
@@ -5223,47 +5223,47 @@
         </is>
       </c>
       <c r="B221" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D221" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E221" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E221" s="0" t="n">
-        <v>1200</v>
-      </c>
       <c r="F221" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="H221" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="B222" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C222" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H222" s="0" t="inlineStr">
         <is>
@@ -5276,19 +5276,19 @@
         <v>50</v>
       </c>
       <c r="C223" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F223" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D223" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E223" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F223" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="G223" s="0" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H223" s="0" t="inlineStr">
         <is>
@@ -5298,10 +5298,10 @@
     </row>
     <row r="224">
       <c r="B224" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.03324903696800374</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.3191433511871148</v>
       </c>
     </row>
     <row r="225">
@@ -5311,22 +5311,22 @@
         </is>
       </c>
       <c r="B225" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G225" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H225" s="0" t="inlineStr">
         <is>
@@ -5336,22 +5336,22 @@
     </row>
     <row r="226">
       <c r="B226" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="H226" s="0" t="inlineStr">
         <is>
@@ -5361,22 +5361,22 @@
     </row>
     <row r="227">
       <c r="B227" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C227" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G227" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H227" s="0" t="inlineStr">
         <is>
@@ -5399,22 +5399,22 @@
         </is>
       </c>
       <c r="B229" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C229" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F229" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="D229" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E229" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F229" s="0" t="n">
-        <v>105</v>
-      </c>
       <c r="G229" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H229" s="0" t="inlineStr">
         <is>
@@ -5424,22 +5424,22 @@
     </row>
     <row r="230">
       <c r="B230" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C230" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G230" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H230" s="0" t="inlineStr">
         <is>
@@ -5449,22 +5449,22 @@
     </row>
     <row r="231">
       <c r="B231" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C231" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D231" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G231" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H231" s="0" t="inlineStr">
         <is>
@@ -5487,22 +5487,22 @@
         </is>
       </c>
       <c r="B233" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G233" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H233" s="0" t="inlineStr">
         <is>
@@ -5512,47 +5512,47 @@
     </row>
     <row r="234">
       <c r="B234" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C234" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D234" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>70</v>
       </c>
       <c r="G234" s="0" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H234" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="B235" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C235" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D235" s="0" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="E235" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F235" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G235" s="0" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H235" s="0" t="inlineStr">
         <is>
@@ -5575,22 +5575,22 @@
         </is>
       </c>
       <c r="B237" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D237" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E237" s="0" t="n">
         <v>1800</v>
       </c>
-      <c r="E237" s="0" t="n">
-        <v>1200</v>
-      </c>
       <c r="F237" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G237" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H237" s="0" t="inlineStr">
         <is>
@@ -5600,22 +5600,22 @@
     </row>
     <row r="238">
       <c r="B238" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D238" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E238" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F238" s="0" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G238" s="0" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H238" s="0" t="inlineStr">
         <is>
@@ -5625,22 +5625,22 @@
     </row>
     <row r="239">
       <c r="B239" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D239" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>600</v>
       </c>
       <c r="F239" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G239" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H239" s="0" t="inlineStr">
         <is>
@@ -5666,19 +5666,19 @@
         <v>130</v>
       </c>
       <c r="C241" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E241" s="0" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="F241" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G241" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H241" s="0" t="inlineStr">
         <is>
@@ -5688,22 +5688,22 @@
     </row>
     <row r="242">
       <c r="B242" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F242" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C242" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D242" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E242" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F242" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="G242" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H242" s="0" t="inlineStr">
         <is>
@@ -5713,26 +5713,26 @@
     </row>
     <row r="243">
       <c r="B243" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C243" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="E243" s="0" t="n">
-        <v>3000</v>
-      </c>
       <c r="F243" s="0" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G243" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H243" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 0 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="B245" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C245" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D245" s="0" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E245" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F245" s="0" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="G245" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H245" s="0" t="inlineStr">
         <is>
@@ -5776,22 +5776,22 @@
     </row>
     <row r="246">
       <c r="B246" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C246" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D246" s="0" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="E246" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F246" s="0" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="G246" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H246" s="0" t="inlineStr">
         <is>
@@ -5801,22 +5801,22 @@
     </row>
     <row r="247">
       <c r="B247" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C247" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E247" s="0" t="n">
-        <v>3000</v>
-      </c>
       <c r="F247" s="0" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G247" s="0" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="H247" s="0" t="inlineStr">
         <is>
@@ -5839,22 +5839,22 @@
         </is>
       </c>
       <c r="B249" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C249" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D249" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E249" s="0" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="F249" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G249" s="0" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H249" s="0" t="inlineStr">
         <is>
@@ -5864,22 +5864,22 @@
     </row>
     <row r="250">
       <c r="B250" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C250" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D250" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E250" s="0" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F250" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G250" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H250" s="0" t="inlineStr">
         <is>
@@ -5889,22 +5889,22 @@
     </row>
     <row r="251">
       <c r="B251" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C251" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D251" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="E251" s="0" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="F251" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G251" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H251" s="0" t="inlineStr">
         <is>
@@ -5927,19 +5927,19 @@
         </is>
       </c>
       <c r="B253" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C253" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E253" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F253" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G253" s="0" t="n">
         <v>70</v>
@@ -5955,44 +5955,44 @@
         <v>90</v>
       </c>
       <c r="C254" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D254" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E254" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F254" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G254" s="0" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="H254" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="B255" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D255" s="0" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="E255" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F255" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G255" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H255" s="0" t="inlineStr">
         <is>
@@ -6015,22 +6015,22 @@
         </is>
       </c>
       <c r="B257" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C257" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D257" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="E257" s="0" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="F257" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G257" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="G257" s="0" t="n">
-        <v>100</v>
       </c>
       <c r="H257" s="0" t="inlineStr">
         <is>
@@ -6040,47 +6040,47 @@
     </row>
     <row r="258">
       <c r="B258" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C258" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D258" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E258" s="0" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="F258" s="0" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="G258" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="H258" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="B259" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C259" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D259" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="E259" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F259" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G259" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H259" s="0" t="inlineStr">
         <is>
@@ -6103,47 +6103,47 @@
         </is>
       </c>
       <c r="B261" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C261" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D261" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E261" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F261" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G261" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="H261" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 20</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="B262" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C262" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D262" s="0" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="E262" s="0" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F262" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G262" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H262" s="0" t="inlineStr">
         <is>
@@ -6153,22 +6153,22 @@
     </row>
     <row r="263">
       <c r="B263" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C263" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D263" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E263" s="0" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F263" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G263" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H263" s="0" t="inlineStr">
         <is>
@@ -6178,10 +6178,10 @@
     </row>
     <row r="264">
       <c r="B264" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.0205590437075174</v>
       </c>
       <c r="C264" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.3335395123422024</v>
       </c>
     </row>
     <row r="265">
@@ -6191,22 +6191,22 @@
         </is>
       </c>
       <c r="B265" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C265" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D265" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E265" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F265" s="0" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G265" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H265" s="0" t="inlineStr">
         <is>
@@ -6216,47 +6216,47 @@
     </row>
     <row r="266">
       <c r="B266" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C266" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D266" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E266" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F266" s="0" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G266" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H266" s="0" t="inlineStr">
         <is>
-          <t>sell 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="B267" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C267" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D267" s="0" t="n">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="E267" s="0" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="F267" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G267" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="H267" s="0" t="inlineStr">
         <is>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B269" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F269" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C269" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D269" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E269" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F269" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G269" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H269" s="0" t="inlineStr">
         <is>
@@ -6304,22 +6304,22 @@
     </row>
     <row r="270">
       <c r="B270" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C270" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D270" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E270" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F270" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G270" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="H270" s="0" t="inlineStr">
         <is>
@@ -6329,22 +6329,22 @@
     </row>
     <row r="271">
       <c r="B271" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C271" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D271" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E271" s="0" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F271" s="0" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G271" s="0" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H271" s="0" t="inlineStr">
         <is>
@@ -6367,22 +6367,22 @@
         </is>
       </c>
       <c r="B273" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C273" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D273" s="0" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="E273" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F273" s="0" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G273" s="0" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="H273" s="0" t="inlineStr">
         <is>
@@ -6392,22 +6392,22 @@
     </row>
     <row r="274">
       <c r="B274" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C274" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D274" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E274" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F274" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G274" s="0" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H274" s="0" t="inlineStr">
         <is>
@@ -6417,22 +6417,22 @@
     </row>
     <row r="275">
       <c r="B275" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F275" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C275" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D275" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E275" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F275" s="0" t="n">
+      <c r="G275" s="0" t="n">
         <v>90</v>
-      </c>
-      <c r="G275" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="H275" s="0" t="inlineStr">
         <is>
@@ -6455,47 +6455,47 @@
         </is>
       </c>
       <c r="B277" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C277" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D277" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E277" s="0" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="F277" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G277" s="0" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H277" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 11</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="B278" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C278" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D278" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E278" s="0" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="F278" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G278" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H278" s="0" t="inlineStr">
         <is>
@@ -6505,22 +6505,22 @@
     </row>
     <row r="279">
       <c r="B279" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C279" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D279" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E279" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F279" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G279" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H279" s="0" t="inlineStr">
         <is>
@@ -6530,10 +6530,10 @@
     </row>
     <row r="280">
       <c r="B280" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3605994764046024</v>
       </c>
       <c r="C280" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.2722637846292927</v>
       </c>
     </row>
     <row r="281">
@@ -6543,22 +6543,22 @@
         </is>
       </c>
       <c r="B281" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C281" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D281" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E281" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F281" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G281" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H281" s="0" t="inlineStr">
         <is>
@@ -6568,22 +6568,22 @@
     </row>
     <row r="282">
       <c r="B282" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G282" s="0" t="n">
         <v>150</v>
-      </c>
-      <c r="C282" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D282" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E282" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F282" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="G282" s="0" t="n">
-        <v>110</v>
       </c>
       <c r="H282" s="0" t="inlineStr">
         <is>
@@ -6593,22 +6593,22 @@
     </row>
     <row r="283">
       <c r="B283" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C283" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D283" s="0" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="E283" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F283" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G283" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H283" s="0" t="inlineStr">
         <is>
@@ -6631,22 +6631,22 @@
         </is>
       </c>
       <c r="B285" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C285" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D285" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E285" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F285" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G285" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H285" s="0" t="inlineStr">
         <is>
@@ -6656,22 +6656,22 @@
     </row>
     <row r="286">
       <c r="B286" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" s="0" t="n">
         <v>70</v>
-      </c>
-      <c r="C286" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D286" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E286" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F286" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G286" s="0" t="n">
-        <v>110</v>
       </c>
       <c r="H286" s="0" t="inlineStr">
         <is>
@@ -6681,26 +6681,26 @@
     </row>
     <row r="287">
       <c r="B287" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C287" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D287" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E287" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F287" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G287" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="G287" s="0" t="n">
-        <v>200</v>
-      </c>
       <c r="H287" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter, 100 ships</t>
         </is>
       </c>
     </row>
@@ -6719,26 +6719,26 @@
         </is>
       </c>
       <c r="B289" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C289" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D289" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E289" s="0" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F289" s="0" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G289" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="H289" s="0" t="inlineStr">
         <is>
-          <t>change speed to 24</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -6747,19 +6747,19 @@
         <v>90</v>
       </c>
       <c r="C290" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D290" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E290" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F290" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D290" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E290" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F290" s="0" t="n">
-        <v>95</v>
-      </c>
       <c r="G290" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H290" s="0" t="inlineStr">
         <is>
@@ -6769,22 +6769,22 @@
     </row>
     <row r="291">
       <c r="B291" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C291" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D291" s="0" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E291" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F291" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G291" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H291" s="0" t="inlineStr">
         <is>
@@ -6794,10 +6794,10 @@
     </row>
     <row r="292">
       <c r="B292" s="0" t="n">
-        <v>-0.02587076350634349</v>
+        <v>-0.02313809807708257</v>
       </c>
       <c r="C292" s="0" t="n">
-        <v>0.3228890480660251</v>
+        <v>0.3283840522967633</v>
       </c>
     </row>
     <row r="293">
@@ -6807,51 +6807,51 @@
         </is>
       </c>
       <c r="B293" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C293" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D293" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E293" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F293" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G293" s="0" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H293" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="B294" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C294" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D294" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F294" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G294" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D294" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E294" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F294" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G294" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="H294" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 100 ships</t>
         </is>
       </c>
     </row>
@@ -6860,19 +6860,19 @@
         <v>60</v>
       </c>
       <c r="C295" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D295" s="0" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="E295" s="0" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="F295" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G295" s="0" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H295" s="0" t="inlineStr">
         <is>
@@ -6882,10 +6882,10 @@
     </row>
     <row r="296">
       <c r="B296" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.02557820179898675</v>
       </c>
       <c r="C296" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.3283202260640615</v>
       </c>
     </row>
     <row r="297">
@@ -6898,19 +6898,19 @@
         <v>110</v>
       </c>
       <c r="C297" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D297" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E297" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F297" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G297" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="H297" s="0" t="inlineStr">
         <is>
@@ -6923,16 +6923,16 @@
         <v>20</v>
       </c>
       <c r="C298" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D298" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E298" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F298" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G298" s="0" t="n">
         <v>95</v>
@@ -6945,22 +6945,22 @@
     </row>
     <row r="299">
       <c r="B299" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C299" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D299" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E299" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F299" s="0" t="n">
         <v>160</v>
       </c>
       <c r="G299" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H299" s="0" t="inlineStr">
         <is>
@@ -6983,22 +6983,22 @@
         </is>
       </c>
       <c r="B301" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C301" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D301" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E301" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F301" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G301" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H301" s="0" t="inlineStr">
         <is>
@@ -7008,22 +7008,22 @@
     </row>
     <row r="302">
       <c r="B302" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C302" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D302" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E302" s="0" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="F302" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G302" s="0" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H302" s="0" t="inlineStr">
         <is>
@@ -7033,22 +7033,22 @@
     </row>
     <row r="303">
       <c r="B303" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C303" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D303" s="0" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E303" s="0" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="F303" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G303" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H303" s="0" t="inlineStr">
         <is>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B305" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D305" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E305" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F305" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G305" s="0" t="n">
         <v>150</v>
-      </c>
-      <c r="C305" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D305" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E305" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F305" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="G305" s="0" t="n">
-        <v>95</v>
       </c>
       <c r="H305" s="0" t="inlineStr">
         <is>
@@ -7096,22 +7096,22 @@
     </row>
     <row r="306">
       <c r="B306" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C306" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D306" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E306" s="0" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="F306" s="0" t="n">
         <v>160</v>
       </c>
       <c r="G306" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H306" s="0" t="inlineStr">
         <is>
@@ -7121,19 +7121,19 @@
     </row>
     <row r="307">
       <c r="B307" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C307" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D307" s="0" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E307" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F307" s="0" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="G307" s="0" t="n">
         <v>95</v>
@@ -7159,22 +7159,22 @@
         </is>
       </c>
       <c r="B309" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C309" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D309" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="E309" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F309" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G309" s="0" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H309" s="0" t="inlineStr">
         <is>
@@ -7184,22 +7184,22 @@
     </row>
     <row r="310">
       <c r="B310" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C310" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D310" s="0" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="E310" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F310" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G310" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H310" s="0" t="inlineStr">
         <is>
@@ -7209,22 +7209,22 @@
     </row>
     <row r="311">
       <c r="B311" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C311" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D311" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E311" s="0" t="n">
         <v>1400</v>
-      </c>
-      <c r="E311" s="0" t="n">
-        <v>1100</v>
       </c>
       <c r="F311" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G311" s="0" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H311" s="0" t="inlineStr">
         <is>
@@ -7247,22 +7247,22 @@
         </is>
       </c>
       <c r="B313" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C313" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D313" s="0" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E313" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F313" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G313" s="0" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="H313" s="0" t="inlineStr">
         <is>
@@ -7272,22 +7272,22 @@
     </row>
     <row r="314">
       <c r="B314" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C314" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D314" s="0" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E314" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F314" s="0" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G314" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H314" s="0" t="inlineStr">
         <is>
@@ -7297,22 +7297,22 @@
     </row>
     <row r="315">
       <c r="B315" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C315" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D315" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E315" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F315" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G315" s="0" t="n">
         <v>130</v>
-      </c>
-      <c r="D315" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E315" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F315" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="G315" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="H315" s="0" t="inlineStr">
         <is>
@@ -7335,47 +7335,47 @@
         </is>
       </c>
       <c r="B317" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C317" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D317" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E317" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F317" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G317" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H317" s="0" t="inlineStr">
         <is>
-          <t>change speed to 25</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="B318" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C318" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D318" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E318" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F318" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G318" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H318" s="0" t="inlineStr">
         <is>
@@ -7385,19 +7385,19 @@
     </row>
     <row r="319">
       <c r="B319" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C319" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D319" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E319" s="0" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="F319" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G319" s="0" t="n">
         <v>90</v>
@@ -7423,22 +7423,22 @@
         </is>
       </c>
       <c r="B321" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C321" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D321" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E321" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F321" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G321" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="H321" s="0" t="inlineStr">
         <is>
@@ -7448,22 +7448,22 @@
     </row>
     <row r="322">
       <c r="B322" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C322" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D322" s="0" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="E322" s="0" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="F322" s="0" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G322" s="0" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H322" s="0" t="inlineStr">
         <is>
@@ -7473,26 +7473,26 @@
     </row>
     <row r="323">
       <c r="B323" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C323" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D323" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E323" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F323" s="0" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G323" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H323" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
     </row>
@@ -7511,22 +7511,22 @@
         </is>
       </c>
       <c r="B325" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C325" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D325" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E325" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F325" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G325" s="0" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H325" s="0" t="inlineStr">
         <is>
@@ -7536,10 +7536,10 @@
     </row>
     <row r="326">
       <c r="B326" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C326" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D326" s="0" t="n">
         <v>1400</v>
@@ -7548,10 +7548,10 @@
         <v>300</v>
       </c>
       <c r="F326" s="0" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="G326" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H326" s="0" t="inlineStr">
         <is>
@@ -7561,22 +7561,22 @@
     </row>
     <row r="327">
       <c r="B327" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C327" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C327" s="0" t="n">
+      <c r="D327" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E327" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F327" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="D327" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E327" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F327" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G327" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="H327" s="0" t="inlineStr">
         <is>
@@ -7599,47 +7599,47 @@
         </is>
       </c>
       <c r="B329" s="0" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="C329" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D329" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E329" s="0" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F329" s="0" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G329" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H329" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 12</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="B330" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C330" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D330" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="E330" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F330" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G330" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H330" s="0" t="inlineStr">
         <is>
@@ -7649,22 +7649,22 @@
     </row>
     <row r="331">
       <c r="B331" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C331" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D331" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E331" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F331" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G331" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H331" s="0" t="inlineStr">
         <is>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="332">
       <c r="B332" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.5271846296415758</v>
       </c>
       <c r="C332" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.1174762964753973</v>
       </c>
     </row>
     <row r="333">
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="B333" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C333" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C333" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="D333" s="0" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="E333" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F333" s="0" t="n">
         <v>90</v>
       </c>
       <c r="G333" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H333" s="0" t="inlineStr">
         <is>
@@ -7712,22 +7712,22 @@
     </row>
     <row r="334">
       <c r="B334" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C334" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D334" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E334" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F334" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G334" s="0" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H334" s="0" t="inlineStr">
         <is>
@@ -7737,22 +7737,22 @@
     </row>
     <row r="335">
       <c r="B335" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C335" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D335" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E335" s="0" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="F335" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G335" s="0" t="n">
         <v>160</v>
-      </c>
-      <c r="G335" s="0" t="n">
-        <v>120</v>
       </c>
       <c r="H335" s="0" t="inlineStr">
         <is>
@@ -7778,19 +7778,19 @@
         <v>150</v>
       </c>
       <c r="C337" s="0" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D337" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E337" s="0" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="F337" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G337" s="0" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="H337" s="0" t="inlineStr">
         <is>
@@ -7800,47 +7800,47 @@
     </row>
     <row r="338">
       <c r="B338" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C338" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D338" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E338" s="0" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F338" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G338" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H338" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 50 ships</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="B339" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C339" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D339" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E339" s="0" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="F339" s="0" t="n">
         <v>70</v>
       </c>
       <c r="G339" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H339" s="0" t="inlineStr">
         <is>
@@ -7863,22 +7863,22 @@
         </is>
       </c>
       <c r="B341" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C341" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D341" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E341" s="0" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="F341" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G341" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H341" s="0" t="inlineStr">
         <is>
@@ -7888,44 +7888,44 @@
     </row>
     <row r="342">
       <c r="B342" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C342" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D342" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E342" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F342" s="0" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G342" s="0" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="H342" s="0" t="inlineStr">
         <is>
-          <t>sell 25 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="B343" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C343" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D343" s="0" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="E343" s="0" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F343" s="0" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G343" s="0" t="n">
         <v>150</v>
@@ -7951,19 +7951,19 @@
         </is>
       </c>
       <c r="B345" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C345" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D345" s="0" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="E345" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F345" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G345" s="0" t="n">
         <v>60</v>
@@ -7976,22 +7976,22 @@
     </row>
     <row r="346">
       <c r="B346" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C346" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D346" s="0" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E346" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F346" s="0" t="n">
         <v>95</v>
       </c>
       <c r="G346" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H346" s="0" t="inlineStr">
         <is>
@@ -8001,22 +8001,22 @@
     </row>
     <row r="347">
       <c r="B347" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C347" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D347" s="0" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="E347" s="0" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F347" s="0" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="G347" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H347" s="0" t="inlineStr">
         <is>
@@ -8039,22 +8039,22 @@
         </is>
       </c>
       <c r="B349" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C349" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D349" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E349" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F349" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G349" s="0" t="n">
         <v>140</v>
-      </c>
-      <c r="C349" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D349" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E349" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F349" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="G349" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="H349" s="0" t="inlineStr">
         <is>
@@ -8064,22 +8064,22 @@
     </row>
     <row r="350">
       <c r="B350" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C350" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D350" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E350" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F350" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G350" s="0" t="n">
         <v>140</v>
-      </c>
-      <c r="C350" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D350" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E350" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F350" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G350" s="0" t="n">
-        <v>60</v>
       </c>
       <c r="H350" s="0" t="inlineStr">
         <is>
@@ -8089,22 +8089,22 @@
     </row>
     <row r="351">
       <c r="B351" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C351" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D351" s="0" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E351" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F351" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G351" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="H351" s="0" t="inlineStr">
         <is>
@@ -8127,22 +8127,22 @@
         </is>
       </c>
       <c r="B353" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C353" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D353" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E353" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F353" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="G353" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="H353" s="0" t="inlineStr">
         <is>
@@ -8152,22 +8152,22 @@
     </row>
     <row r="354">
       <c r="B354" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C354" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D354" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E354" s="0" t="n">
         <v>1400</v>
       </c>
       <c r="F354" s="0" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G354" s="0" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H354" s="0" t="inlineStr">
         <is>
@@ -8177,22 +8177,22 @@
     </row>
     <row r="355">
       <c r="B355" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C355" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D355" s="0" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="E355" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F355" s="0" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G355" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H355" s="0" t="inlineStr">
         <is>
@@ -8215,22 +8215,22 @@
         </is>
       </c>
       <c r="B357" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C357" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D357" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E357" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F357" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="G357" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H357" s="0" t="inlineStr">
         <is>
@@ -8240,22 +8240,22 @@
     </row>
     <row r="358">
       <c r="B358" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C358" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D358" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E358" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F358" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G358" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="H358" s="0" t="inlineStr">
         <is>
@@ -8265,22 +8265,22 @@
     </row>
     <row r="359">
       <c r="B359" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C359" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D359" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E359" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F359" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G359" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H359" s="0" t="inlineStr">
         <is>
@@ -8303,22 +8303,22 @@
         </is>
       </c>
       <c r="B361" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C361" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D361" s="0" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E361" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="F361" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G361" s="0" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="H361" s="0" t="inlineStr">
         <is>
@@ -8328,51 +8328,51 @@
     </row>
     <row r="362">
       <c r="B362" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C362" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D362" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E362" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="E362" s="0" t="n">
-        <v>1800</v>
-      </c>
       <c r="F362" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G362" s="0" t="n">
         <v>140</v>
       </c>
       <c r="H362" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 15 ships</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="B363" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C363" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E363" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F363" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G363" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H363" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -8391,22 +8391,22 @@
         </is>
       </c>
       <c r="B365" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C365" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D365" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E365" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F365" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G365" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="D365" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E365" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F365" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="G365" s="0" t="n">
-        <v>70</v>
       </c>
       <c r="H365" s="0" t="inlineStr">
         <is>
@@ -8416,22 +8416,22 @@
     </row>
     <row r="366">
       <c r="B366" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C366" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D366" s="0" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E366" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="F366" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G366" s="0" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H366" s="0" t="inlineStr">
         <is>
@@ -8444,19 +8444,19 @@
         <v>60</v>
       </c>
       <c r="C367" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D367" s="0" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="E367" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F367" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G367" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H367" s="0" t="inlineStr">
         <is>
@@ -8479,22 +8479,22 @@
         </is>
       </c>
       <c r="B369" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C369" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D369" s="0" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E369" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F369" s="0" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G369" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H369" s="0" t="inlineStr">
         <is>
@@ -8504,22 +8504,22 @@
     </row>
     <row r="370">
       <c r="B370" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C370" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D370" s="0" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="E370" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F370" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G370" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="H370" s="0" t="inlineStr">
         <is>
@@ -8529,22 +8529,22 @@
     </row>
     <row r="371">
       <c r="B371" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C371" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D371" s="0" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E371" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F371" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G371" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H371" s="0" t="inlineStr">
         <is>
@@ -8567,22 +8567,22 @@
         </is>
       </c>
       <c r="B373" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C373" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D373" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E373" s="0" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F373" s="0" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G373" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H373" s="0" t="inlineStr">
         <is>
@@ -8592,22 +8592,22 @@
     </row>
     <row r="374">
       <c r="B374" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C374" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D374" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E374" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F374" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G374" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H374" s="0" t="inlineStr">
         <is>
@@ -8620,19 +8620,19 @@
         <v>110</v>
       </c>
       <c r="C375" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D375" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="E375" s="0" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="F375" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G375" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H375" s="0" t="inlineStr">
         <is>
@@ -8655,22 +8655,22 @@
         </is>
       </c>
       <c r="B377" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C377" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D377" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E377" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F377" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G377" s="0" t="n">
         <v>110</v>
-      </c>
-      <c r="G377" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="H377" s="0" t="inlineStr">
         <is>
@@ -8680,22 +8680,22 @@
     </row>
     <row r="378">
       <c r="B378" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C378" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D378" s="0" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="E378" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="F378" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G378" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H378" s="0" t="inlineStr">
         <is>
@@ -8705,26 +8705,26 @@
     </row>
     <row r="379">
       <c r="B379" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C379" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D379" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E379" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="F379" s="0" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G379" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H379" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -8743,47 +8743,47 @@
         </is>
       </c>
       <c r="B381" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C381" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D381" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="E381" s="0" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="F381" s="0" t="n">
         <v>90</v>
       </c>
       <c r="G381" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H381" s="0" t="inlineStr">
         <is>
-          <t>change speed to 22</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="B382" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C382" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D382" s="0" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="E382" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F382" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G382" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H382" s="0" t="inlineStr">
         <is>
@@ -8793,22 +8793,22 @@
     </row>
     <row r="383">
       <c r="B383" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C383" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D383" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E383" s="0" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="F383" s="0" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G383" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H383" s="0" t="inlineStr">
         <is>
@@ -8818,10 +8818,10 @@
     </row>
     <row r="384">
       <c r="B384" s="0" t="n">
-        <v>0.005671189371755192</v>
+        <v>-0.02313809807708257</v>
       </c>
       <c r="C384" s="0" t="n">
-        <v>0.3677962027170547</v>
+        <v>0.3283840522967633</v>
       </c>
     </row>
     <row r="385">
@@ -8831,22 +8831,22 @@
         </is>
       </c>
       <c r="B385" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C385" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D385" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E385" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F385" s="0" t="n">
         <v>140</v>
       </c>
       <c r="G385" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="H385" s="0" t="inlineStr">
         <is>
@@ -8856,22 +8856,22 @@
     </row>
     <row r="386">
       <c r="B386" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C386" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D386" s="0" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E386" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F386" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G386" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H386" s="0" t="inlineStr">
         <is>
@@ -8881,22 +8881,22 @@
     </row>
     <row r="387">
       <c r="B387" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C387" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D387" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E387" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G387" s="0" t="n">
         <v>130</v>
-      </c>
-      <c r="D387" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E387" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F387" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="G387" s="0" t="n">
-        <v>160</v>
       </c>
       <c r="H387" s="0" t="inlineStr">
         <is>
@@ -8919,22 +8919,22 @@
         </is>
       </c>
       <c r="B389" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C389" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D389" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E389" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="E389" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="F389" s="0" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G389" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="H389" s="0" t="inlineStr">
         <is>
@@ -8944,22 +8944,22 @@
     </row>
     <row r="390">
       <c r="B390" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E390" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F390" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D390" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E390" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F390" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G390" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="H390" s="0" t="inlineStr">
         <is>
@@ -8969,22 +8969,22 @@
     </row>
     <row r="391">
       <c r="B391" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C391" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D391" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E391" s="0" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F391" s="0" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G391" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H391" s="0" t="inlineStr">
         <is>
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="B393" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C393" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D393" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E393" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F393" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G393" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H393" s="0" t="inlineStr">
         <is>
@@ -9032,22 +9032,22 @@
     </row>
     <row r="394">
       <c r="B394" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C394" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D394" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E394" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F394" s="0" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G394" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H394" s="0" t="inlineStr">
         <is>
@@ -9057,22 +9057,22 @@
     </row>
     <row r="395">
       <c r="B395" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C395" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D395" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E395" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F395" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G395" s="0" t="n">
         <v>90</v>
-      </c>
-      <c r="C395" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D395" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="E395" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F395" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G395" s="0" t="n">
-        <v>60</v>
       </c>
       <c r="H395" s="0" t="inlineStr">
         <is>
@@ -9095,47 +9095,47 @@
         </is>
       </c>
       <c r="B397" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C397" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D397" s="0" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E397" s="0" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F397" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G397" s="0" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="H397" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 26</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="B398" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C398" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D398" s="0" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E398" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F398" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G398" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H398" s="0" t="inlineStr">
         <is>
@@ -9145,19 +9145,19 @@
     </row>
     <row r="399">
       <c r="B399" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C399" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D399" s="0" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="E399" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F399" s="0" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="G399" s="0" t="n">
         <v>50</v>
@@ -9170,10 +9170,10 @@
     </row>
     <row r="400">
       <c r="B400" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.1166632001326029</v>
       </c>
       <c r="C400" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.4120556195497315</v>
       </c>
     </row>
     <row r="401">

--- a/output/ship_rule_integrate_initial.xlsx
+++ b/output/ship_rule_integrate_initial.xlsx
@@ -383,22 +383,22 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F1" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D1" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="G1" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
@@ -408,22 +408,22 @@
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
@@ -433,22 +433,22 @@
     </row>
     <row r="3">
       <c r="B3" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>95</v>
-      </c>
       <c r="G3" s="0" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
     </row>
     <row r="4">
       <c r="B4" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
     </row>
     <row r="6">
       <c r="B6" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -521,22 +521,22 @@
     </row>
     <row r="7">
       <c r="B7" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
     </row>
     <row r="8">
       <c r="B8" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="9">
@@ -559,47 +559,47 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
@@ -609,22 +609,22 @@
     </row>
     <row r="11">
       <c r="B11" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D11" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>2000</v>
-      </c>
       <c r="F11" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="12">
       <c r="B12" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="13">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F13" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>105</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
@@ -672,22 +672,22 @@
     </row>
     <row r="14">
       <c r="B14" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
@@ -697,22 +697,22 @@
     </row>
     <row r="15">
       <c r="B15" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>3000</v>
-      </c>
       <c r="F15" s="0" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
@@ -722,10 +722,10 @@
     </row>
     <row r="16">
       <c r="B16" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="17">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
@@ -760,22 +760,22 @@
     </row>
     <row r="18">
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
@@ -785,19 +785,19 @@
     </row>
     <row r="19">
       <c r="B19" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>110</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="20">
       <c r="B20" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="21">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
@@ -848,44 +848,44 @@
     </row>
     <row r="22">
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>sell 30 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>50</v>
@@ -898,10 +898,10 @@
     </row>
     <row r="24">
       <c r="B24" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="25">
@@ -911,19 +911,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D25" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>80</v>
@@ -936,22 +936,22 @@
     </row>
     <row r="26">
       <c r="B26" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="D26" s="0" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
@@ -961,22 +961,22 @@
     </row>
     <row r="27">
       <c r="B27" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
@@ -986,10 +986,10 @@
     </row>
     <row r="28">
       <c r="B28" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="29">
@@ -999,22 +999,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
@@ -1024,22 +1024,22 @@
     </row>
     <row r="30">
       <c r="B30" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
     </row>
     <row r="31">
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="32">
       <c r="B32" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="33">
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
@@ -1112,47 +1112,47 @@
     </row>
     <row r="34">
       <c r="B34" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>120</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 90 ships</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="36">
       <c r="B36" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="37">
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
@@ -1200,22 +1200,22 @@
     </row>
     <row r="38">
       <c r="B38" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C38" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F38" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>70</v>
-      </c>
       <c r="G38" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
@@ -1225,22 +1225,22 @@
     </row>
     <row r="39">
       <c r="B39" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="40">
       <c r="B40" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="41">
@@ -1263,19 +1263,19 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>90</v>
@@ -1288,22 +1288,22 @@
     </row>
     <row r="42">
       <c r="B42" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
@@ -1313,22 +1313,22 @@
     </row>
     <row r="43">
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="44">
       <c r="B44" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="45">
@@ -1351,22 +1351,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
@@ -1376,60 +1376,60 @@
     </row>
     <row r="46">
       <c r="B46" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C46" s="0" t="n">
         <v>70</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>40</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>900</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 80 ships</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="49">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>120</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>160</v>
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
@@ -1464,22 +1464,22 @@
     </row>
     <row r="50">
       <c r="B50" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C50" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F50" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="G50" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
@@ -1489,22 +1489,22 @@
     </row>
     <row r="51">
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>120</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="52">
       <c r="B52" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="53">
@@ -1527,47 +1527,47 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>140</v>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>change speed to 19</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D54" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>300</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
@@ -1577,22 +1577,22 @@
     </row>
     <row r="55">
       <c r="B55" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C55" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G55" s="0" t="n">
         <v>90</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>200</v>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="56">
       <c r="B56" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="57">
@@ -1615,22 +1615,22 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="58">
       <c r="B58" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>120</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="59">
       <c r="B59" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>110</v>
@@ -1674,13 +1674,13 @@
         <v>1300</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="60">
       <c r="B60" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="61">
@@ -1703,22 +1703,22 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
@@ -1728,47 +1728,47 @@
     </row>
     <row r="62">
       <c r="B62" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 40 ships</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="64">
       <c r="B64" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="65">
@@ -1791,22 +1791,22 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H65" s="0" t="inlineStr">
         <is>
@@ -1816,22 +1816,22 @@
     </row>
     <row r="66">
       <c r="B66" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
@@ -1841,22 +1841,22 @@
     </row>
     <row r="67">
       <c r="B67" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H67" s="0" t="inlineStr">
         <is>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="68">
       <c r="B68" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="69">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
@@ -1904,22 +1904,22 @@
     </row>
     <row r="70">
       <c r="B70" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
@@ -1929,22 +1929,22 @@
     </row>
     <row r="71">
       <c r="B71" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
@@ -1954,10 +1954,10 @@
     </row>
     <row r="72">
       <c r="B72" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="73">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H73" s="0" t="inlineStr">
         <is>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="74">
       <c r="B74" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
@@ -2017,22 +2017,22 @@
     </row>
     <row r="75">
       <c r="B75" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E75" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="F75" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="76">
       <c r="B76" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="77">
@@ -2055,22 +2055,22 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="H77" s="0" t="inlineStr">
         <is>
@@ -2080,22 +2080,22 @@
     </row>
     <row r="78">
       <c r="B78" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H78" s="0" t="inlineStr">
         <is>
@@ -2108,19 +2108,19 @@
         <v>60</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H79" s="0" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="80">
       <c r="B80" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="81">
@@ -2143,22 +2143,22 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <v>130</v>
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
@@ -2168,47 +2168,47 @@
     </row>
     <row r="82">
       <c r="B82" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>120</v>
       </c>
       <c r="H82" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G83" s="0" t="n">
         <v>95</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>100</v>
       </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="84">
       <c r="B84" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="85">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
@@ -2256,22 +2256,22 @@
     </row>
     <row r="86">
       <c r="B86" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="H86" s="0" t="inlineStr">
         <is>
@@ -2281,22 +2281,22 @@
     </row>
     <row r="87">
       <c r="B87" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="88">
       <c r="B88" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="89">
@@ -2319,22 +2319,22 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C89" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C89" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D89" s="0" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="H89" s="0" t="inlineStr">
         <is>
@@ -2344,22 +2344,22 @@
     </row>
     <row r="90">
       <c r="B90" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>80</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H90" s="0" t="inlineStr">
         <is>
@@ -2369,22 +2369,22 @@
     </row>
     <row r="91">
       <c r="B91" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="92">
       <c r="B92" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="93">
@@ -2407,22 +2407,22 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="H93" s="0" t="inlineStr">
         <is>
@@ -2435,19 +2435,19 @@
         <v>150</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
@@ -2457,35 +2457,35 @@
     </row>
     <row r="95">
       <c r="B95" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H95" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 0 ships</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="97">
@@ -2495,47 +2495,47 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H97" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 16</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H98" s="0" t="inlineStr">
         <is>
@@ -2545,22 +2545,22 @@
     </row>
     <row r="99">
       <c r="B99" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="H99" s="0" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="100">
       <c r="B100" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.357394378228772</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.07419992679007958</v>
       </c>
     </row>
     <row r="101">
@@ -2583,22 +2583,22 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H101" s="0" t="inlineStr">
         <is>
@@ -2608,22 +2608,22 @@
     </row>
     <row r="102">
       <c r="B102" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H102" s="0" t="inlineStr">
         <is>
@@ -2633,22 +2633,22 @@
     </row>
     <row r="103">
       <c r="B103" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="G103" s="0" t="n">
-        <v>95</v>
       </c>
       <c r="H103" s="0" t="inlineStr">
         <is>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="104">
       <c r="B104" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="105">
@@ -2671,22 +2671,22 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H105" s="0" t="inlineStr">
         <is>
@@ -2696,44 +2696,44 @@
     </row>
     <row r="106">
       <c r="B106" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H106" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 20 ships</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>110</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="108">
       <c r="B108" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="109">
@@ -2759,22 +2759,22 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C109" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C109" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D109" s="0" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H109" s="0" t="inlineStr">
         <is>
@@ -2784,47 +2784,47 @@
     </row>
     <row r="110">
       <c r="B110" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H110" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 90 ships</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F111" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G111" s="0" t="n">
         <v>110</v>
-      </c>
-      <c r="G111" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="H111" s="0" t="inlineStr">
         <is>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="112">
       <c r="B112" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="113">
@@ -2847,22 +2847,22 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>95</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H113" s="0" t="inlineStr">
         <is>
@@ -2872,22 +2872,22 @@
     </row>
     <row r="114">
       <c r="B114" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="H114" s="0" t="inlineStr">
         <is>
@@ -2897,22 +2897,22 @@
     </row>
     <row r="115">
       <c r="B115" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H115" s="0" t="inlineStr">
         <is>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="116">
       <c r="B116" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="117">
@@ -2935,47 +2935,47 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H117" s="0" t="inlineStr">
         <is>
-          <t>change speed to 17</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H118" s="0" t="inlineStr">
         <is>
@@ -2985,22 +2985,22 @@
     </row>
     <row r="119">
       <c r="B119" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="H119" s="0" t="inlineStr">
         <is>
@@ -3010,10 +3010,10 @@
     </row>
     <row r="120">
       <c r="B120" s="0" t="n">
-        <v>-0.08532794202483898</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.2943634133496985</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="121">
@@ -3023,22 +3023,22 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H121" s="0" t="inlineStr">
         <is>
@@ -3048,22 +3048,22 @@
     </row>
     <row r="122">
       <c r="B122" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="H122" s="0" t="inlineStr">
         <is>
@@ -3073,35 +3073,35 @@
     </row>
     <row r="123">
       <c r="B123" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C123" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C123" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="D123" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H123" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="125">
@@ -3111,47 +3111,47 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H125" s="0" t="inlineStr">
         <is>
-          <t>change speed to 14</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H126" s="0" t="inlineStr">
         <is>
@@ -3164,32 +3164,32 @@
         <v>60</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H127" s="0" t="inlineStr">
         <is>
-          <t>36month charter, 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="0" t="n">
-        <v>-0.07887266033871057</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.2964375600858459</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="129">
@@ -3199,22 +3199,22 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D129" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E129" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="E129" s="0" t="n">
-        <v>1200</v>
-      </c>
       <c r="F129" s="0" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H129" s="0" t="inlineStr">
         <is>
@@ -3224,22 +3224,22 @@
     </row>
     <row r="130">
       <c r="B130" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="0" t="n">
         <v>130</v>
-      </c>
-      <c r="G130" s="0" t="n">
-        <v>120</v>
       </c>
       <c r="H130" s="0" t="inlineStr">
         <is>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="131">
       <c r="B131" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F131" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="G131" s="0" t="n">
         <v>70</v>
-      </c>
-      <c r="D131" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E131" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F131" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G131" s="0" t="n">
-        <v>130</v>
       </c>
       <c r="H131" s="0" t="inlineStr">
         <is>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="132">
       <c r="B132" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="133">
@@ -3287,47 +3287,47 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H133" s="0" t="inlineStr">
         <is>
-          <t>change speed to 19</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C134" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C134" s="0" t="n">
-        <v>70</v>
-      </c>
       <c r="D134" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E134" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E134" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="F134" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H134" s="0" t="inlineStr">
         <is>
@@ -3337,35 +3337,35 @@
     </row>
     <row r="135">
       <c r="B135" s="0" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="H135" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="137">
@@ -3375,47 +3375,47 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H137" s="0" t="inlineStr">
         <is>
-          <t>change speed to 26</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C138" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F138" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D138" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E138" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F138" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="G138" s="0" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H138" s="0" t="inlineStr">
         <is>
@@ -3425,22 +3425,22 @@
     </row>
     <row r="139">
       <c r="B139" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="G139" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="D139" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E139" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" s="0" t="n">
-        <v>105</v>
       </c>
       <c r="H139" s="0" t="inlineStr">
         <is>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="140">
       <c r="B140" s="0" t="n">
-        <v>-0.08709631898669409</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.4059451434895897</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="141">
@@ -3463,22 +3463,22 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C141" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G141" s="0" t="n">
         <v>130</v>
-      </c>
-      <c r="D141" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E141" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F141" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="G141" s="0" t="n">
-        <v>60</v>
       </c>
       <c r="H141" s="0" t="inlineStr">
         <is>
@@ -3488,22 +3488,22 @@
     </row>
     <row r="142">
       <c r="B142" s="0" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H142" s="0" t="inlineStr">
         <is>
@@ -3513,22 +3513,22 @@
     </row>
     <row r="143">
       <c r="B143" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>500</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H143" s="0" t="inlineStr">
         <is>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="144">
       <c r="B144" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="145">
@@ -3551,22 +3551,22 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H145" s="0" t="inlineStr">
         <is>
@@ -3576,22 +3576,22 @@
     </row>
     <row r="146">
       <c r="B146" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H146" s="0" t="inlineStr">
         <is>
@@ -3601,22 +3601,22 @@
     </row>
     <row r="147">
       <c r="B147" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H147" s="0" t="inlineStr">
         <is>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="148">
       <c r="B148" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="149">
@@ -3639,47 +3639,47 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="H149" s="0" t="inlineStr">
         <is>
-          <t>change speed to 25</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G150" s="0" t="n">
         <v>150</v>
-      </c>
-      <c r="C150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G150" s="0" t="n">
-        <v>160</v>
       </c>
       <c r="H150" s="0" t="inlineStr">
         <is>
@@ -3689,22 +3689,22 @@
     </row>
     <row r="151">
       <c r="B151" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H151" s="0" t="inlineStr">
         <is>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="152">
       <c r="B152" s="0" t="n">
-        <v>-0.08682469847180166</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0.3630072501598532</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="153">
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="H153" s="0" t="inlineStr">
         <is>
@@ -3752,22 +3752,22 @@
     </row>
     <row r="154">
       <c r="B154" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H154" s="0" t="inlineStr">
         <is>
@@ -3777,22 +3777,22 @@
     </row>
     <row r="155">
       <c r="B155" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D155" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E155" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="E155" s="0" t="n">
-        <v>2000</v>
-      </c>
       <c r="F155" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="H155" s="0" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="156">
       <c r="B156" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="157">
@@ -3815,22 +3815,22 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="H157" s="0" t="inlineStr">
         <is>
@@ -3840,22 +3840,22 @@
     </row>
     <row r="158">
       <c r="B158" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H158" s="0" t="inlineStr">
         <is>
@@ -3865,19 +3865,19 @@
     </row>
     <row r="159">
       <c r="B159" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G159" s="0" t="n">
         <v>0</v>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="160">
       <c r="B160" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="161">
@@ -3903,47 +3903,47 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="F161" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G161" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="G161" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="H161" s="0" t="inlineStr">
         <is>
-          <t>change speed to 11</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H162" s="0" t="inlineStr">
         <is>
@@ -3953,22 +3953,22 @@
     </row>
     <row r="163">
       <c r="B163" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H163" s="0" t="inlineStr">
         <is>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="164">
       <c r="B164" s="0" t="n">
-        <v>-0.5917364957962499</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0.3045446897326468</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="165">
@@ -3991,44 +3991,44 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H165" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 17</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="0" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C166" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F166" s="0" t="n">
         <v>150</v>
-      </c>
-      <c r="D166" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E166" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" s="0" t="n">
-        <v>95</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>70</v>
@@ -4041,22 +4041,22 @@
     </row>
     <row r="167">
       <c r="B167" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H167" s="0" t="inlineStr">
         <is>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="168">
       <c r="B168" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.293459885472764</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.07045260826156767</v>
       </c>
     </row>
     <row r="169">
@@ -4079,22 +4079,22 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H169" s="0" t="inlineStr">
         <is>
@@ -4104,47 +4104,47 @@
     </row>
     <row r="170">
       <c r="B170" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>70</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H170" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C171" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G171" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="D171" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E171" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F171" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G171" s="0" t="n">
-        <v>110</v>
       </c>
       <c r="H171" s="0" t="inlineStr">
         <is>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="172">
       <c r="B172" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="173">
@@ -4167,22 +4167,22 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D173" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E173" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="E173" s="0" t="n">
-        <v>300</v>
-      </c>
       <c r="F173" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H173" s="0" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="174">
       <c r="B174" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>80</v>
@@ -4201,38 +4201,38 @@
         <v>800</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H174" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 80 ships</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="B175" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H175" s="0" t="inlineStr">
         <is>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="176">
       <c r="B176" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="177">
@@ -4255,22 +4255,22 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F177" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="H177" s="0" t="inlineStr">
         <is>
@@ -4280,22 +4280,22 @@
     </row>
     <row r="178">
       <c r="B178" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H178" s="0" t="inlineStr">
         <is>
@@ -4305,22 +4305,22 @@
     </row>
     <row r="179">
       <c r="B179" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H179" s="0" t="inlineStr">
         <is>
@@ -4330,10 +4330,10 @@
     </row>
     <row r="180">
       <c r="B180" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="181">
@@ -4343,47 +4343,47 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="H181" s="0" t="inlineStr">
         <is>
-          <t>change speed to 16</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="B182" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C182" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F182" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D182" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E182" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F182" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G182" s="0" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H182" s="0" t="inlineStr">
         <is>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="183">
       <c r="B183" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="C183" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C183" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="D183" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="F183" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H183" s="0" t="inlineStr">
         <is>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="184">
       <c r="B184" s="0" t="n">
-        <v>-0.08519119870677873</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>0.3183676602619434</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="185">
@@ -4431,26 +4431,26 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H185" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 22</t>
         </is>
       </c>
     </row>
@@ -4459,19 +4459,19 @@
         <v>130</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H186" s="0" t="inlineStr">
         <is>
@@ -4481,35 +4481,35 @@
     </row>
     <row r="187">
       <c r="B187" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H187" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="B188" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3184262499797868</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.09061559684964128</v>
       </c>
     </row>
     <row r="189">
@@ -4519,26 +4519,26 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H189" s="0" t="inlineStr">
         <is>
-          <t>change speed to 24</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -4547,19 +4547,19 @@
         <v>30</v>
       </c>
       <c r="C190" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G190" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="D190" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E190" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F190" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="G190" s="0" t="n">
-        <v>80</v>
       </c>
       <c r="H190" s="0" t="inlineStr">
         <is>
@@ -4569,22 +4569,22 @@
     </row>
     <row r="191">
       <c r="B191" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="H191" s="0" t="inlineStr">
         <is>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="192">
       <c r="B192" s="0" t="n">
-        <v>-0.07769201310238247</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>0.3382134274554678</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="193">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D193" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E193" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="E193" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F193" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H193" s="0" t="inlineStr">
         <is>
@@ -4632,22 +4632,22 @@
     </row>
     <row r="194">
       <c r="B194" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H194" s="0" t="inlineStr">
         <is>
@@ -4657,22 +4657,22 @@
     </row>
     <row r="195">
       <c r="B195" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H195" s="0" t="inlineStr">
         <is>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="196">
       <c r="B196" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="197">
@@ -4695,22 +4695,22 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H197" s="0" t="inlineStr">
         <is>
@@ -4720,22 +4720,22 @@
     </row>
     <row r="198">
       <c r="B198" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F198" s="0" t="n">
         <v>200</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H198" s="0" t="inlineStr">
         <is>
@@ -4745,22 +4745,22 @@
     </row>
     <row r="199">
       <c r="B199" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H199" s="0" t="inlineStr">
         <is>
@@ -4770,10 +4770,10 @@
     </row>
     <row r="200">
       <c r="B200" s="0" t="n">
-        <v>-0.02313809807708257</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>0.3283840522967633</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="201">
